--- a/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA82542-F962-4C2D-B435-D886535B1C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148260F4-8A38-49F0-AD65-E9039B51BDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5650E5B5-BA44-4716-9980-5845BD99F0B9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B1D131B-EF1A-4AD1-A0D3-F2C792E1EFE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
@@ -74,466 +74,484 @@
     <t>2,5%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>Menos</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>26,93%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>58,68%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>68,39%</t>
@@ -542,7 +560,10 @@
     <t>69,6%</t>
   </si>
   <si>
-    <t>71,16%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6095C9F1-1BE5-4504-80EC-4F700F8FA3A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F2AD5C-B249-4738-876F-B7C73DF96B3A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1320,10 +1341,10 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,13 +1359,13 @@
         <v>116213</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>333</v>
@@ -1353,13 +1374,13 @@
         <v>176013</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>473</v>
@@ -1368,13 +1389,13 @@
         <v>292226</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1389,13 +1410,13 @@
         <v>415005</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>625</v>
@@ -1404,13 +1425,13 @@
         <v>392302</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>1077</v>
@@ -1419,13 +1440,13 @@
         <v>807308</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,7 +1502,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1493,13 +1514,13 @@
         <v>10757</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -1508,13 +1529,13 @@
         <v>17462</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -1592,7 +1613,7 @@
         <v>708</v>
       </c>
       <c r="D14" s="7">
-        <v>798162</v>
+        <v>798163</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1643,7 +1664,7 @@
         <v>948</v>
       </c>
       <c r="D15" s="7">
-        <v>1012059</v>
+        <v>1012060</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1705,7 +1726,7 @@
         <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -1714,13 +1735,13 @@
         <v>21455</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -1729,13 +1750,13 @@
         <v>36317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1771,13 @@
         <v>182371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>304</v>
@@ -1765,13 +1786,13 @@
         <v>317168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>478</v>
@@ -1780,13 +1801,13 @@
         <v>499539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,13 +1822,13 @@
         <v>472460</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>658</v>
@@ -1816,13 +1837,13 @@
         <v>492028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>1102</v>
@@ -1831,13 +1852,13 @@
         <v>964488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,7 +1914,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1905,13 +1926,13 @@
         <v>11674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -1920,13 +1941,13 @@
         <v>35032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -1941,7 +1962,7 @@
         <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1977,13 @@
         <v>285692</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>555</v>
@@ -1971,13 +1992,13 @@
         <v>368151</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>878</v>
@@ -1986,13 +2007,13 @@
         <v>653842</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2028,13 @@
         <v>667002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>948</v>
@@ -2022,13 +2043,13 @@
         <v>740753</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>1614</v>
@@ -2037,13 +2058,13 @@
         <v>1407755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2132,13 @@
         <v>46922</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
@@ -2126,13 +2147,13 @@
         <v>87091</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -2141,13 +2162,13 @@
         <v>134013</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2183,13 @@
         <v>812249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>1733</v>
@@ -2177,13 +2198,13 @@
         <v>1175962</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>2627</v>
@@ -2192,13 +2213,13 @@
         <v>1988211</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,16 +2231,16 @@
         <v>2349</v>
       </c>
       <c r="D26" s="7">
-        <v>2424953</v>
+        <v>2424954</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>3345</v>
@@ -2228,28 +2249,28 @@
         <v>2433017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>5694</v>
       </c>
       <c r="N26" s="7">
-        <v>4857971</v>
+        <v>4857970</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,7 +2282,7 @@
         <v>3305</v>
       </c>
       <c r="D27" s="7">
-        <v>3284124</v>
+        <v>3284125</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2291,7 +2312,7 @@
         <v>8513</v>
       </c>
       <c r="N27" s="7">
-        <v>6980195</v>
+        <v>6980194</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2305,7 +2326,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{148260F4-8A38-49F0-AD65-E9039B51BDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7824A3AE-D917-4FCE-B0F3-DF66B0E1D6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B1D131B-EF1A-4AD1-A0D3-F2C792E1EFE0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A39CE74-9260-49FA-B8C2-EA649E14723D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,1439 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="621">
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>&lt;2.000hab</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
     <t>2,5%</t>
   </si>
   <si>
@@ -83,9 +1484,6 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>4,42%</t>
   </si>
   <si>
@@ -98,70 +1496,55 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>Menos</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -170,79 +1553,64 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -272,145 +1640,130 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -422,151 +1775,133 @@
     <t>1,93%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
   </si>
 </sst>
 </file>
@@ -978,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F2AD5C-B249-4738-876F-B7C73DF96B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B02F7-65A8-4155-AB50-C9D03B2DE7FE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1096,10 +2431,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2488</v>
+        <v>1875</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,133 +2449,133 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1384</v>
+        <v>1884</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3758</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3872</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13461</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7">
-        <v>24834</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18518</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>108</v>
-      </c>
-      <c r="I5" s="7">
-        <v>51412</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>33</v>
+      </c>
+      <c r="N5" s="7">
+        <v>31978</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>140</v>
-      </c>
-      <c r="N5" s="7">
-        <v>76246</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>91</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100023</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>79</v>
-      </c>
-      <c r="D6" s="7">
-        <v>72324</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>104</v>
+      </c>
+      <c r="I6" s="7">
+        <v>91559</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>120</v>
-      </c>
-      <c r="I6" s="7">
-        <v>70435</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>195</v>
+      </c>
+      <c r="N6" s="7">
+        <v>191581</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>199</v>
-      </c>
-      <c r="N6" s="7">
-        <v>142759</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,99 +2584,99 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7">
-        <v>99645</v>
+        <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="I7" s="7">
-        <v>123232</v>
+        <v>111960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="N7" s="7">
-        <v>222877</v>
+        <v>227318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>7141</v>
+        <v>20537</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>11757</v>
+        <v>16842</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>37</v>
+      </c>
+      <c r="N8" s="7">
+        <v>37379</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="7">
-        <v>25</v>
-      </c>
-      <c r="N8" s="7">
-        <v>18898</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>49</v>
@@ -1350,13 +2685,13 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7">
-        <v>116213</v>
+        <v>58020</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1368,10 +2703,10 @@
         <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>333</v>
+        <v>92</v>
       </c>
       <c r="I9" s="7">
-        <v>176013</v>
+        <v>92838</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1383,10 +2718,10 @@
         <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>473</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>292226</v>
+        <v>150858</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1401,13 +2736,13 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="D10" s="7">
-        <v>415005</v>
+        <v>491126</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1419,10 +2754,10 @@
         <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>625</v>
+        <v>458</v>
       </c>
       <c r="I10" s="7">
-        <v>392302</v>
+        <v>463979</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1434,10 +2769,10 @@
         <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>1077</v>
+        <v>947</v>
       </c>
       <c r="N10" s="7">
-        <v>807308</v>
+        <v>955105</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1455,49 +2790,49 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="D11" s="7">
-        <v>538359</v>
+        <v>569683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>974</v>
+        <v>566</v>
       </c>
       <c r="I11" s="7">
-        <v>580072</v>
+        <v>573660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>1575</v>
+        <v>1135</v>
       </c>
       <c r="N11" s="7">
-        <v>1118431</v>
+        <v>1143342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,10 +2843,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>10757</v>
+        <v>62172</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -1523,10 +2858,10 @@
         <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>17462</v>
+        <v>31620</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>72</v>
@@ -1538,10 +2873,10 @@
         <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>28219</v>
+        <v>93792</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>75</v>
@@ -1556,13 +2891,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="D13" s="7">
-        <v>203140</v>
+        <v>135087</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>78</v>
@@ -1574,10 +2909,10 @@
         <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="I13" s="7">
-        <v>263219</v>
+        <v>200579</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -1589,10 +2924,10 @@
         <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>658</v>
+        <v>312</v>
       </c>
       <c r="N13" s="7">
-        <v>466358</v>
+        <v>335666</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -1607,13 +2942,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D14" s="7">
-        <v>798163</v>
+        <v>752278</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1625,10 +2960,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>994</v>
+        <v>686</v>
       </c>
       <c r="I14" s="7">
-        <v>737499</v>
+        <v>730080</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1640,10 +2975,10 @@
         <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>1702</v>
+        <v>1390</v>
       </c>
       <c r="N14" s="7">
-        <v>1535661</v>
+        <v>1482357</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1661,49 +2996,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>948</v>
+        <v>884</v>
       </c>
       <c r="D15" s="7">
-        <v>1012060</v>
+        <v>949537</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>1456</v>
+        <v>902</v>
       </c>
       <c r="I15" s="7">
-        <v>1018180</v>
+        <v>962278</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>2404</v>
+        <v>1786</v>
       </c>
       <c r="N15" s="7">
-        <v>2030239</v>
+        <v>1911815</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,10 +3049,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>14862</v>
+        <v>23658</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -1729,136 +3064,136 @@
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>21455</v>
+        <v>27985</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7">
+        <v>51643</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="7">
-        <v>50</v>
-      </c>
-      <c r="N16" s="7">
-        <v>36317</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7">
-        <v>182371</v>
+        <v>110600</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>176</v>
+      </c>
+      <c r="I17" s="7">
+        <v>176537</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>304</v>
-      </c>
-      <c r="I17" s="7">
-        <v>317168</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>281</v>
+      </c>
+      <c r="N17" s="7">
+        <v>287137</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="7">
-        <v>478</v>
-      </c>
-      <c r="N17" s="7">
-        <v>499539</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>472460</v>
+        <v>536364</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>485</v>
+      </c>
+      <c r="I18" s="7">
+        <v>473008</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>658</v>
-      </c>
-      <c r="I18" s="7">
-        <v>492028</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>989</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1009372</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="7">
-        <v>1102</v>
-      </c>
-      <c r="N18" s="7">
-        <v>964488</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,204 +3202,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D19" s="7">
-        <v>669693</v>
+        <v>670622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>994</v>
+        <v>690</v>
       </c>
       <c r="I19" s="7">
-        <v>830651</v>
+        <v>677530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>1630</v>
+        <v>1322</v>
       </c>
       <c r="N19" s="7">
-        <v>1500344</v>
+        <v>1348152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>11674</v>
+        <v>32148</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>49</v>
+      </c>
+      <c r="I20" s="7">
+        <v>52924</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="7">
-        <v>51</v>
-      </c>
-      <c r="I20" s="7">
-        <v>35032</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>86</v>
+      </c>
+      <c r="N20" s="7">
+        <v>85071</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="M20" s="7">
-        <v>67</v>
-      </c>
-      <c r="N20" s="7">
-        <v>46706</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="D21" s="7">
-        <v>285692</v>
+        <v>140822</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>178</v>
+      </c>
+      <c r="I21" s="7">
+        <v>187273</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="7">
-        <v>555</v>
-      </c>
-      <c r="I21" s="7">
-        <v>368151</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>325</v>
+      </c>
+      <c r="N21" s="7">
+        <v>328095</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="7">
-        <v>878</v>
-      </c>
-      <c r="N21" s="7">
-        <v>653842</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>666</v>
+        <v>792</v>
       </c>
       <c r="D22" s="7">
-        <v>667002</v>
+        <v>751436</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>763</v>
+      </c>
+      <c r="I22" s="7">
+        <v>791513</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>948</v>
-      </c>
-      <c r="I22" s="7">
-        <v>740753</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1555</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1542949</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="7">
-        <v>1614</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1407755</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +3408,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="D23" s="7">
-        <v>964368</v>
+        <v>924406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>1554</v>
+        <v>990</v>
       </c>
       <c r="I23" s="7">
-        <v>1143936</v>
+        <v>1031710</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>2559</v>
+        <v>1966</v>
       </c>
       <c r="N23" s="7">
-        <v>2108304</v>
+        <v>1956116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,151 +3461,151 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D24" s="7">
-        <v>46922</v>
+        <v>140389</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>123</v>
+      </c>
+      <c r="I24" s="7">
+        <v>131255</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="7">
-        <v>130</v>
-      </c>
-      <c r="I24" s="7">
-        <v>87091</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>263</v>
+      </c>
+      <c r="N24" s="7">
+        <v>271643</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M24" s="7">
-        <v>192</v>
-      </c>
-      <c r="N24" s="7">
-        <v>134013</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="D25" s="7">
-        <v>812249</v>
+        <v>457990</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>656</v>
+      </c>
+      <c r="I25" s="7">
+        <v>675745</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="7">
-        <v>1733</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1175962</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1102</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1133735</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M25" s="7">
-        <v>2627</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1988211</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
-        <v>2349</v>
+        <v>2580</v>
       </c>
       <c r="D26" s="7">
-        <v>2424954</v>
+        <v>2631226</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>2496</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2550138</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="7">
-        <v>3345</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2433017</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>5076</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5181365</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="7">
-        <v>5694</v>
-      </c>
-      <c r="N26" s="7">
-        <v>4857970</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,19 +3614,4126 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>3166</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3229605</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3357138</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6586743</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2909C48D-EAE8-40E6-B3E6-4876116F85CD}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3329</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7899</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>11228</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25196</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="7">
+        <v>29</v>
+      </c>
+      <c r="I5" s="7">
+        <v>32341</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="7">
+        <v>55</v>
+      </c>
+      <c r="N5" s="7">
+        <v>57537</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>92</v>
+      </c>
+      <c r="D6" s="7">
+        <v>87241</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="7">
+        <v>62</v>
+      </c>
+      <c r="I6" s="7">
+        <v>70492</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M6" s="7">
+        <v>154</v>
+      </c>
+      <c r="N6" s="7">
+        <v>157733</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>122</v>
+      </c>
+      <c r="D7" s="7">
+        <v>115765</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
+        <v>98</v>
+      </c>
+      <c r="I7" s="7">
+        <v>110733</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="7">
+        <v>220</v>
+      </c>
+      <c r="N7" s="7">
+        <v>226498</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>34766</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="7">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7">
+        <v>20134</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" s="7">
+        <v>51</v>
+      </c>
+      <c r="N8" s="7">
+        <v>54901</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7">
+        <v>125</v>
+      </c>
+      <c r="D9" s="7">
+        <v>131798</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="7">
+        <v>160</v>
+      </c>
+      <c r="I9" s="7">
+        <v>170378</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="7">
+        <v>285</v>
+      </c>
+      <c r="N9" s="7">
+        <v>302176</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>394</v>
+      </c>
+      <c r="D10" s="7">
+        <v>420070</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="7">
+        <v>372</v>
+      </c>
+      <c r="I10" s="7">
+        <v>394633</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="7">
+        <v>766</v>
+      </c>
+      <c r="N10" s="7">
+        <v>814703</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>551</v>
+      </c>
+      <c r="D11" s="7">
+        <v>586635</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
+        <v>551</v>
+      </c>
+      <c r="I11" s="7">
+        <v>585145</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1102</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1171780</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>63125</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="7">
+        <v>63</v>
+      </c>
+      <c r="I12" s="7">
+        <v>68920</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="7">
+        <v>120</v>
+      </c>
+      <c r="N12" s="7">
+        <v>132045</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>186</v>
+      </c>
+      <c r="D13" s="7">
+        <v>203447</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="7">
+        <v>258</v>
+      </c>
+      <c r="I13" s="7">
+        <v>282683</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="7">
+        <v>444</v>
+      </c>
+      <c r="N13" s="7">
+        <v>486129</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>691</v>
+      </c>
+      <c r="D14" s="7">
+        <v>749392</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="7">
+        <v>618</v>
+      </c>
+      <c r="I14" s="7">
+        <v>679517</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1309</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1428909</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>934</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1015964</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7">
+        <v>939</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1031120</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1873</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2047083</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33768</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7">
+        <v>33111</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M16" s="7">
+        <v>58</v>
+      </c>
+      <c r="N16" s="7">
+        <v>66879</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7">
+        <v>136086</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
+        <v>180</v>
+      </c>
+      <c r="I17" s="7">
+        <v>195307</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M17" s="7">
+        <v>303</v>
+      </c>
+      <c r="N17" s="7">
+        <v>331393</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>533</v>
+      </c>
+      <c r="D18" s="7">
+        <v>585764</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18" s="7">
+        <v>497</v>
+      </c>
+      <c r="I18" s="7">
+        <v>547774</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1030</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1133538</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>687</v>
+      </c>
+      <c r="D19" s="7">
+        <v>755618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
+        <v>704</v>
+      </c>
+      <c r="I19" s="7">
+        <v>776192</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1391</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1531810</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>53</v>
+      </c>
+      <c r="D20" s="7">
+        <v>58447</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="7">
+        <v>50</v>
+      </c>
+      <c r="I20" s="7">
+        <v>51019</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M20" s="7">
+        <v>103</v>
+      </c>
+      <c r="N20" s="7">
+        <v>109467</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>188</v>
+      </c>
+      <c r="D21" s="7">
+        <v>194556</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="7">
+        <v>277</v>
+      </c>
+      <c r="I21" s="7">
+        <v>291969</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M21" s="7">
+        <v>465</v>
+      </c>
+      <c r="N21" s="7">
+        <v>486525</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>662</v>
+      </c>
+      <c r="D22" s="7">
+        <v>686575</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" s="7">
+        <v>670</v>
+      </c>
+      <c r="I22" s="7">
+        <v>702780</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1332</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1389355</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>903</v>
+      </c>
+      <c r="D23" s="7">
+        <v>939578</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
+        <v>997</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1045768</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1900</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1985346</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>177</v>
+      </c>
+      <c r="D24" s="7">
+        <v>193436</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H24" s="7">
+        <v>166</v>
+      </c>
+      <c r="I24" s="7">
+        <v>181084</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M24" s="7">
+        <v>343</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374519</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7">
+        <v>648</v>
+      </c>
+      <c r="D25" s="7">
+        <v>691083</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="7">
+        <v>904</v>
+      </c>
+      <c r="I25" s="7">
+        <v>972678</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1663760</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2372</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2529041</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2219</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2395197</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4591</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4924238</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3197</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3413560</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3289</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3548958</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6486</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6962518</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDE3931-0AFC-4037-B4EE-CE57C05E62EC}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9917</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M4" s="7">
+        <v>21</v>
+      </c>
+      <c r="N4" s="7">
+        <v>21032</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22380</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" s="7">
+        <v>33</v>
+      </c>
+      <c r="I5" s="7">
+        <v>34636</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M5" s="7">
+        <v>55</v>
+      </c>
+      <c r="N5" s="7">
+        <v>57017</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>80</v>
+      </c>
+      <c r="D6" s="7">
+        <v>82662</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="7">
+        <v>71</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67609</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="7">
+        <v>151</v>
+      </c>
+      <c r="N6" s="7">
+        <v>150270</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>112</v>
+      </c>
+      <c r="D7" s="7">
+        <v>114959</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
+        <v>115</v>
+      </c>
+      <c r="I7" s="7">
+        <v>113360</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="7">
+        <v>227</v>
+      </c>
+      <c r="N7" s="7">
+        <v>228319</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>32971</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="7">
+        <v>32</v>
+      </c>
+      <c r="I8" s="7">
+        <v>33328</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M8" s="7">
+        <v>64</v>
+      </c>
+      <c r="N8" s="7">
+        <v>66299</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7">
+        <v>70</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77017</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="7">
+        <v>121</v>
+      </c>
+      <c r="I9" s="7">
+        <v>126610</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M9" s="7">
+        <v>191</v>
+      </c>
+      <c r="N9" s="7">
+        <v>203627</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>435</v>
+      </c>
+      <c r="D10" s="7">
+        <v>446336</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H10" s="7">
+        <v>390</v>
+      </c>
+      <c r="I10" s="7">
+        <v>391156</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M10" s="7">
+        <v>825</v>
+      </c>
+      <c r="N10" s="7">
+        <v>837492</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>537</v>
+      </c>
+      <c r="D11" s="7">
+        <v>556323</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
+        <v>543</v>
+      </c>
+      <c r="I11" s="7">
+        <v>551094</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1080</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1107417</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30883</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7">
+        <v>33915</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="7">
+        <v>61</v>
+      </c>
+      <c r="N12" s="7">
+        <v>64798</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>154</v>
+      </c>
+      <c r="D13" s="7">
+        <v>166600</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13" s="7">
+        <v>227</v>
+      </c>
+      <c r="I13" s="7">
+        <v>250109</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M13" s="7">
+        <v>381</v>
+      </c>
+      <c r="N13" s="7">
+        <v>416709</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>763</v>
+      </c>
+      <c r="D14" s="7">
+        <v>821699</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" s="7">
+        <v>719</v>
+      </c>
+      <c r="I14" s="7">
+        <v>756788</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1482</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1578487</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>948</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1019183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7">
+        <v>976</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1040812</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1924</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2059994</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47926</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36022</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M16" s="7">
+        <v>77</v>
+      </c>
+      <c r="N16" s="7">
+        <v>83949</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>140</v>
+      </c>
+      <c r="D17" s="7">
+        <v>150825</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H17" s="7">
+        <v>186</v>
+      </c>
+      <c r="I17" s="7">
+        <v>205489</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M17" s="7">
+        <v>326</v>
+      </c>
+      <c r="N17" s="7">
+        <v>356314</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>510</v>
+      </c>
+      <c r="D18" s="7">
+        <v>560801</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H18" s="7">
+        <v>518</v>
+      </c>
+      <c r="I18" s="7">
+        <v>542552</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1028</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1103354</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>696</v>
+      </c>
+      <c r="D19" s="7">
+        <v>759552</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
+        <v>735</v>
+      </c>
+      <c r="I19" s="7">
+        <v>784063</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1431</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1543616</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7">
+        <v>62322</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H20" s="7">
+        <v>42</v>
+      </c>
+      <c r="I20" s="7">
+        <v>48991</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M20" s="7">
+        <v>108</v>
+      </c>
+      <c r="N20" s="7">
+        <v>111313</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>176</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185780</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H21" s="7">
+        <v>204</v>
+      </c>
+      <c r="I21" s="7">
+        <v>226689</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M21" s="7">
+        <v>380</v>
+      </c>
+      <c r="N21" s="7">
+        <v>412469</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>690</v>
+      </c>
+      <c r="D22" s="7">
+        <v>689465</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H22" s="7">
+        <v>710</v>
+      </c>
+      <c r="I22" s="7">
+        <v>764994</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1400</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1454459</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>932</v>
+      </c>
+      <c r="D23" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
+        <v>956</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1040674</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1888</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1978241</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>185</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184020</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H24" s="7">
+        <v>146</v>
+      </c>
+      <c r="I24" s="7">
+        <v>163371</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M24" s="7">
+        <v>331</v>
+      </c>
+      <c r="N24" s="7">
+        <v>347391</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7">
+        <v>562</v>
+      </c>
+      <c r="D25" s="7">
+        <v>602601</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H25" s="7">
+        <v>771</v>
+      </c>
+      <c r="I25" s="7">
+        <v>843533</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1446135</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2478</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2600963</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2408</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2523098</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4886</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5124061</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3225</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3387584</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3325</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3530002</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6550</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6917587</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5756AD-D163-47B4-A881-EDF8FC547F82}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2488</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1384</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3872</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23571</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" s="7">
+        <v>106</v>
+      </c>
+      <c r="I5" s="7">
+        <v>50231</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M5" s="7">
+        <v>137</v>
+      </c>
+      <c r="N5" s="7">
+        <v>73802</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>80</v>
+      </c>
+      <c r="D6" s="7">
+        <v>73586</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H6" s="7">
+        <v>122</v>
+      </c>
+      <c r="I6" s="7">
+        <v>71617</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="M6" s="7">
+        <v>202</v>
+      </c>
+      <c r="N6" s="7">
+        <v>145203</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>115</v>
+      </c>
+      <c r="D7" s="7">
+        <v>99645</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7">
+        <v>230</v>
+      </c>
+      <c r="I7" s="7">
+        <v>123232</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="7">
+        <v>345</v>
+      </c>
+      <c r="N7" s="7">
+        <v>222877</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7141</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="7">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7">
+        <v>12443</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M8" s="7">
+        <v>26</v>
+      </c>
+      <c r="N8" s="7">
+        <v>19584</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7">
+        <v>133</v>
+      </c>
+      <c r="D9" s="7">
+        <v>105599</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H9" s="7">
+        <v>319</v>
+      </c>
+      <c r="I9" s="7">
+        <v>165367</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M9" s="7">
+        <v>452</v>
+      </c>
+      <c r="N9" s="7">
+        <v>270965</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>459</v>
+      </c>
+      <c r="D10" s="7">
+        <v>425619</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H10" s="7">
+        <v>638</v>
+      </c>
+      <c r="I10" s="7">
+        <v>402262</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1097</v>
+      </c>
+      <c r="N10" s="7">
+        <v>827881</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>601</v>
+      </c>
+      <c r="D11" s="7">
+        <v>538359</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
+        <v>974</v>
+      </c>
+      <c r="I11" s="7">
+        <v>580072</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1575</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1118431</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10757</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H12" s="7">
+        <v>29</v>
+      </c>
+      <c r="I12" s="7">
+        <v>17462</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M12" s="7">
+        <v>44</v>
+      </c>
+      <c r="N12" s="7">
+        <v>28219</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>211</v>
+      </c>
+      <c r="D13" s="7">
+        <v>186706</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H13" s="7">
+        <v>416</v>
+      </c>
+      <c r="I13" s="7">
+        <v>248431</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="M13" s="7">
+        <v>627</v>
+      </c>
+      <c r="N13" s="7">
+        <v>435137</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>722</v>
+      </c>
+      <c r="D14" s="7">
+        <v>814597</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1011</v>
+      </c>
+      <c r="I14" s="7">
+        <v>752287</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1733</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1566883</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>948</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1012060</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1456</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1018180</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2404</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2030239</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15633</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H16" s="7">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7">
+        <v>22779</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="M16" s="7">
+        <v>53</v>
+      </c>
+      <c r="N16" s="7">
+        <v>38411</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>166</v>
+      </c>
+      <c r="D17" s="7">
+        <v>170415</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H17" s="7">
+        <v>286</v>
+      </c>
+      <c r="I17" s="7">
+        <v>305476</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M17" s="7">
+        <v>452</v>
+      </c>
+      <c r="N17" s="7">
+        <v>475892</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>451</v>
+      </c>
+      <c r="D18" s="7">
+        <v>483645</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H18" s="7">
+        <v>674</v>
+      </c>
+      <c r="I18" s="7">
+        <v>502396</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1125</v>
+      </c>
+      <c r="N18" s="7">
+        <v>986041</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>636</v>
+      </c>
+      <c r="D19" s="7">
+        <v>669693</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
+        <v>994</v>
+      </c>
+      <c r="I19" s="7">
+        <v>830651</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1630</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1500344</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7">
+        <v>11674</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H20" s="7">
+        <v>52</v>
+      </c>
+      <c r="I20" s="7">
+        <v>37276</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M20" s="7">
+        <v>68</v>
+      </c>
+      <c r="N20" s="7">
+        <v>48950</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>302</v>
+      </c>
+      <c r="D21" s="7">
+        <v>259573</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H21" s="7">
+        <v>522</v>
+      </c>
+      <c r="I21" s="7">
+        <v>338623</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="M21" s="7">
+        <v>824</v>
+      </c>
+      <c r="N21" s="7">
+        <v>598196</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>687</v>
+      </c>
+      <c r="D22" s="7">
+        <v>693121</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H22" s="7">
+        <v>980</v>
+      </c>
+      <c r="I22" s="7">
+        <v>768037</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1667</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1461158</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D23" s="7">
+        <v>964368</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1554</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1143936</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2559</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2108304</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7">
+        <v>47693</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H24" s="7">
+        <v>134</v>
+      </c>
+      <c r="I24" s="7">
+        <v>91344</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="M24" s="7">
+        <v>197</v>
+      </c>
+      <c r="N24" s="7">
+        <v>139037</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7">
+        <v>843</v>
+      </c>
+      <c r="D25" s="7">
+        <v>745864</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1649</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1108128</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2492</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1853992</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2399</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2490568</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3425</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2496598</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5824</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4987165</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3305</v>
       </c>
       <c r="D27" s="7">
         <v>3284125</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>5208</v>
@@ -2300,13 +7742,13 @@
         <v>3696070</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>8513</v>
@@ -2315,18 +7757,18 @@
         <v>6980194</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7824A3AE-D917-4FCE-B0F3-DF66B0E1D6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{855612C7-D427-402D-9157-EDE649676F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A39CE74-9260-49FA-B8C2-EA649E14723D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40CB5FBB-65E5-44D4-A4A1-6592C4A30495}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="617">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -80,1828 +80,1816 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>6,55%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>5,86%</t>
+    <t>5,26%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>Menos</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>30,34%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
     <t>75,84%</t>
   </si>
   <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>71,45%</t>
   </si>
   <si>
-    <t>66,57%</t>
+    <t>67,73%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B02F7-65A8-4155-AB50-C9D03B2DE7FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78270F-6815-40AF-B83E-F479B676020C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2849,13 +2837,13 @@
         <v>62172</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -2864,13 +2852,13 @@
         <v>31620</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -2879,13 +2867,13 @@
         <v>93792</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2888,13 @@
         <v>135087</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -2915,13 +2903,13 @@
         <v>200579</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -2930,13 +2918,13 @@
         <v>335666</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2939,13 @@
         <v>752278</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>686</v>
@@ -2966,13 +2954,13 @@
         <v>730080</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1390</v>
@@ -2981,13 +2969,13 @@
         <v>1482357</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,7 +3031,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3055,13 +3043,13 @@
         <v>23658</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3070,7 +3058,7 @@
         <v>27985</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>100</v>
@@ -3276,13 +3264,13 @@
         <v>52924</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>86</v>
@@ -3291,13 +3279,13 @@
         <v>85071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3300,13 @@
         <v>140822</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>178</v>
@@ -3327,13 +3315,13 @@
         <v>187273</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>325</v>
@@ -3342,13 +3330,13 @@
         <v>328095</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3351,13 @@
         <v>751436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>763</v>
@@ -3378,13 +3366,13 @@
         <v>791513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>1555</v>
@@ -3393,13 +3381,13 @@
         <v>1542949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3455,13 @@
         <v>140389</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -3503,7 +3491,7 @@
         <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2909C48D-EAE8-40E6-B3E6-4876116F85CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F005D087-6D00-4B44-B875-857E18FC4796}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4033,7 +4021,7 @@
         <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -4042,13 +4030,13 @@
         <v>54901</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4051,13 @@
         <v>131798</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -4078,13 +4066,13 @@
         <v>170378</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>285</v>
@@ -4093,13 +4081,13 @@
         <v>302176</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4102,13 @@
         <v>420070</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>372</v>
@@ -4129,13 +4117,13 @@
         <v>394633</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>766</v>
@@ -4144,13 +4132,13 @@
         <v>814703</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4206,13 @@
         <v>63125</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>63</v>
@@ -4233,13 +4221,13 @@
         <v>68920</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -4248,13 +4236,13 @@
         <v>132045</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4257,13 @@
         <v>203447</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>258</v>
@@ -4284,13 +4272,13 @@
         <v>282683</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>444</v>
@@ -4299,13 +4287,13 @@
         <v>486129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4308,13 @@
         <v>749392</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>618</v>
@@ -4335,13 +4323,13 @@
         <v>679517</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>1309</v>
@@ -4350,13 +4338,13 @@
         <v>1428909</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4400,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4424,13 +4412,13 @@
         <v>33768</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4439,13 +4427,13 @@
         <v>33111</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -4454,13 +4442,13 @@
         <v>66879</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4463,13 @@
         <v>136086</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4490,13 +4478,13 @@
         <v>195307</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -4505,13 +4493,13 @@
         <v>331393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4618,13 @@
         <v>58447</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -4645,13 +4633,13 @@
         <v>51019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -4660,13 +4648,13 @@
         <v>109467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4669,13 @@
         <v>194556</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="H21" s="7">
         <v>277</v>
@@ -4696,13 +4684,13 @@
         <v>291969</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>465</v>
@@ -4711,13 +4699,13 @@
         <v>486525</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4720,13 @@
         <v>686575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>670</v>
@@ -4747,13 +4735,13 @@
         <v>702780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1332</v>
@@ -4762,13 +4750,13 @@
         <v>1389355</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4824,13 @@
         <v>193436</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>166</v>
@@ -4851,13 +4839,13 @@
         <v>181084</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>343</v>
@@ -4866,13 +4854,13 @@
         <v>374519</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4875,13 @@
         <v>691083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>904</v>
@@ -4902,13 +4890,13 @@
         <v>972678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>1552</v>
@@ -4917,13 +4905,13 @@
         <v>1663760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4926,13 @@
         <v>2529041</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>2219</v>
@@ -4953,13 +4941,13 @@
         <v>2395197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>4591</v>
@@ -4968,13 +4956,13 @@
         <v>4924238</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDE3931-0AFC-4037-B4EE-CE57C05E62EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C9E777-54C0-43C8-8387-3B2CC92BF391}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5068,7 +5056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5175,13 +5163,13 @@
         <v>9917</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5190,13 +5178,13 @@
         <v>11115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5205,13 +5193,13 @@
         <v>21032</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5214,13 @@
         <v>22380</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -5241,13 +5229,13 @@
         <v>34636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -5256,13 +5244,13 @@
         <v>57017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5265,13 @@
         <v>82662</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>71</v>
@@ -5292,13 +5280,13 @@
         <v>67609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -5307,13 +5295,13 @@
         <v>150270</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,10 +5372,10 @@
         <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -5396,13 +5384,13 @@
         <v>33328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -5411,13 +5399,13 @@
         <v>66299</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5420,13 @@
         <v>77017</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
         <v>121</v>
@@ -5447,13 +5435,13 @@
         <v>126610</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -5462,13 +5450,13 @@
         <v>203627</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5471,13 @@
         <v>446336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>390</v>
@@ -5498,13 +5486,13 @@
         <v>391156</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>825</v>
@@ -5513,13 +5501,13 @@
         <v>837492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5575,13 @@
         <v>30883</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -5602,13 +5590,13 @@
         <v>33915</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>387</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -5617,13 +5605,13 @@
         <v>64798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5626,13 @@
         <v>166600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -5653,13 +5641,13 @@
         <v>250109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>381</v>
@@ -5668,13 +5656,13 @@
         <v>416709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5677,13 @@
         <v>821699</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>719</v>
@@ -5704,13 +5692,13 @@
         <v>756788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1482</v>
@@ -5719,13 +5707,13 @@
         <v>1578487</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,7 +5769,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5793,10 +5781,10 @@
         <v>47926</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>408</v>
@@ -5808,13 +5796,13 @@
         <v>36022</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -5823,13 +5811,13 @@
         <v>83949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5832,13 @@
         <v>150825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -5859,13 +5847,13 @@
         <v>205489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>326</v>
@@ -5874,13 +5862,13 @@
         <v>356314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5883,13 @@
         <v>560801</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>518</v>
@@ -5910,13 +5898,13 @@
         <v>542552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>1028</v>
@@ -5925,13 +5913,13 @@
         <v>1103354</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5987,13 @@
         <v>62322</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -6014,13 +6002,13 @@
         <v>48991</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -6029,13 +6017,13 @@
         <v>111313</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6038,13 @@
         <v>185780</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H21" s="7">
         <v>204</v>
@@ -6065,13 +6053,13 @@
         <v>226689</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>380</v>
@@ -6080,13 +6068,13 @@
         <v>412469</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6089,13 @@
         <v>689465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>710</v>
@@ -6116,13 +6104,13 @@
         <v>764994</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>1400</v>
@@ -6131,13 +6119,13 @@
         <v>1454459</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6193,13 @@
         <v>184020</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H24" s="7">
         <v>146</v>
@@ -6223,10 +6211,10 @@
         <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>459</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>331</v>
@@ -6238,7 +6226,7 @@
         <v>460</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>461</v>
@@ -6262,7 +6250,7 @@
         <v>463</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="H25" s="7">
         <v>771</v>
@@ -6271,13 +6259,13 @@
         <v>843533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>1333</v>
@@ -6286,13 +6274,13 @@
         <v>1446135</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6295,7 @@
         <v>2600963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>469</v>
@@ -6322,7 +6310,7 @@
         <v>2523098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>471</v>
@@ -6340,10 +6328,10 @@
         <v>473</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,7 +6408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5756AD-D163-47B4-A881-EDF8FC547F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99361EC9-2C02-409B-B15A-6442BEED7F9E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6437,7 +6425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6544,13 +6532,13 @@
         <v>2488</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6559,13 +6547,13 @@
         <v>1384</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6574,13 +6562,13 @@
         <v>3872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>482</v>
+        <v>45</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,10 +6586,10 @@
         <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -6610,13 +6598,13 @@
         <v>50231</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -6625,13 +6613,13 @@
         <v>73802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6634,13 @@
         <v>73586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>493</v>
+        <v>276</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7">
         <v>122</v>
@@ -6661,13 +6649,13 @@
         <v>71617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M6" s="7">
         <v>202</v>
@@ -6676,13 +6664,13 @@
         <v>145203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6738,13 @@
         <v>7141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -6765,13 +6753,13 @@
         <v>12443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -6780,13 +6768,13 @@
         <v>19584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6789,13 @@
         <v>105599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H9" s="7">
         <v>319</v>
@@ -6816,13 +6804,13 @@
         <v>165367</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M9" s="7">
         <v>452</v>
@@ -6831,13 +6819,13 @@
         <v>270965</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>293</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6840,13 @@
         <v>425619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H10" s="7">
         <v>638</v>
@@ -6867,13 +6855,13 @@
         <v>402262</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>517</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
         <v>1097</v>
@@ -6882,13 +6870,13 @@
         <v>827881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6944,13 @@
         <v>10757</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -6971,13 +6959,13 @@
         <v>17462</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -6986,13 +6974,13 @@
         <v>28219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +6995,13 @@
         <v>186706</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>531</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H13" s="7">
         <v>416</v>
@@ -7022,13 +7010,13 @@
         <v>248431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>627</v>
@@ -7037,13 +7025,13 @@
         <v>435137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,16 +7043,16 @@
         <v>722</v>
       </c>
       <c r="D14" s="7">
-        <v>814597</v>
+        <v>814596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>1011</v>
@@ -7073,13 +7061,13 @@
         <v>752287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>1733</v>
@@ -7088,13 +7076,13 @@
         <v>1566883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,7 +7094,7 @@
         <v>948</v>
       </c>
       <c r="D15" s="7">
-        <v>1012060</v>
+        <v>1012059</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -7150,7 +7138,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7162,13 +7150,13 @@
         <v>15633</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -7177,13 +7165,13 @@
         <v>22779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>553</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -7192,13 +7180,13 @@
         <v>38411</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7201,13 @@
         <v>170415</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -7228,13 +7216,13 @@
         <v>305476</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -7243,13 +7231,13 @@
         <v>475892</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7252,13 @@
         <v>483645</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="H18" s="7">
         <v>674</v>
@@ -7279,13 +7267,13 @@
         <v>502396</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="M18" s="7">
         <v>1125</v>
@@ -7294,13 +7282,13 @@
         <v>986041</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7356,13 @@
         <v>11674</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -7383,13 +7371,13 @@
         <v>37276</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -7398,13 +7386,13 @@
         <v>48950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7407,13 @@
         <v>259573</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>583</v>
+        <v>510</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -7434,13 +7422,13 @@
         <v>338623</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M21" s="7">
         <v>824</v>
@@ -7449,13 +7437,13 @@
         <v>598196</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7458,13 @@
         <v>693121</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>980</v>
@@ -7485,13 +7473,13 @@
         <v>768037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>595</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>1667</v>
@@ -7500,13 +7488,13 @@
         <v>1461158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>599</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,13 +7562,13 @@
         <v>47693</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7">
         <v>134</v>
@@ -7589,13 +7577,13 @@
         <v>91344</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>604</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>197</v>
@@ -7604,13 +7592,13 @@
         <v>139037</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>48</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,13 +7613,13 @@
         <v>745864</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>1649</v>
@@ -7640,13 +7628,13 @@
         <v>1108128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>2492</v>
@@ -7655,13 +7643,13 @@
         <v>1853992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,16 +7661,16 @@
         <v>2399</v>
       </c>
       <c r="D26" s="7">
-        <v>2490568</v>
+        <v>2490567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>271</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>3425</v>
@@ -7691,28 +7679,28 @@
         <v>2496598</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M26" s="7">
         <v>5824</v>
       </c>
       <c r="N26" s="7">
-        <v>4987165</v>
+        <v>4987166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,7 +7712,7 @@
         <v>3305</v>
       </c>
       <c r="D27" s="7">
-        <v>3284125</v>
+        <v>3284124</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -7754,7 +7742,7 @@
         <v>8513</v>
       </c>
       <c r="N27" s="7">
-        <v>6980194</v>
+        <v>6980195</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>

--- a/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2007</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3066,7 +3066,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2012</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5586,7 +5586,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2016</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8106,7 +8106,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2023</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
